--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusz.wysocki\Desktop\Concept\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusz.wysocki\Documents\AL\IMW_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A064393E-62AD-46AB-B965-867F80F1DB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778B85ED-31A8-44EE-A76C-3E3B0CEECF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3583AF43-A27A-4A99-94C7-D38A598A0E15}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3583AF43-A27A-4A99-94C7-D38A598A0E15}"/>
   </bookViews>
   <sheets>
     <sheet name="Testy" sheetId="1" r:id="rId1"/>
@@ -736,8 +736,8 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateusz.wysocki\Documents\AL\IMW_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8492D96-DFB9-4C39-B8A7-5A61435A9BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBFC01A-7A5D-4852-AAD2-C58C2DD88D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMW Tests" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Area</t>
   </si>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>Value of Auto Assigned Cust. Disc. Group is true. Status is "Open".</t>
-  </si>
-  <si>
-    <t>Manually allocat customer to discount group.</t>
-  </si>
-  <si>
-    <t>Customer allocation can't be changed.</t>
   </si>
   <si>
     <t>One discount group has not requirement.</t>
@@ -587,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B988044-F82C-454C-8772-93364BF72EDC}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>19</v>
@@ -696,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -722,16 +716,16 @@
         <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -754,16 +748,16 @@
         <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -783,19 +777,19 @@
         <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -815,19 +809,19 @@
         <v>29</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -847,19 +841,19 @@
         <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -882,16 +876,16 @@
         <v>33</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L9">
         <v>8</v>
@@ -914,16 +908,16 @@
         <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10">
         <v>9</v>
@@ -943,19 +937,19 @@
         <v>35</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -975,82 +969,54 @@
         <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L13">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1576,6 +1542,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010038A02E6385B6944E837418522D443707" ma:contentTypeVersion="15" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="e212a0a285644ae837ee5b2c0782b726">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e0277092-f208-41fd-9f2b-ef47bd2126a3" xmlns:ns3="23773914-4b94-40ee-8997-01f035a39c46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fce6ff5d6c0dbd790dd86974679c051d" ns2:_="" ns3:_="">
     <xsd:import namespace="e0277092-f208-41fd-9f2b-ef47bd2126a3"/>
@@ -1812,15 +1787,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1833,6 +1799,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D246E6F4-4C47-49FE-984C-FDBFC4A2FFEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85012E3E-616D-4204-BAEE-86A0E40B4E33}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1847,14 +1821,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D246E6F4-4C47-49FE-984C-FDBFC4A2FFEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
